--- a/data/georgia_census/guria/ozurgeti/age_dependency.xlsx
+++ b/data/georgia_census/guria/ozurgeti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDAB6CB2-6946-4565-9FB7-979F3156423E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7A1AE3A-84C5-42B1-9D08-99130F3309A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D212BE3F-1552-4E80-9A19-366E39A36748}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD82904-F5F4-4B09-9D75-4990D265A58C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29FD8D6-08A1-408C-B4C0-A14E7311C65C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961956B9-0914-4531-951B-7F84AE69F597}"/>
 </file>